--- a/report_generator/data/vulnerabilities.xlsx
+++ b/report_generator/data/vulnerabilities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tools\安服\tools\渗透测试漏洞报告生成\XhitReport\XhitReport-s1g0day\XhitReport-s1g0day-debug\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20240710\tools\蓝队\tools\渗透测试漏洞报告生成\ShitReport\ShitReport-s1g0day\ShitReport-s1g0day-debug\debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3255639-C747-4723-AF25-E57FC9A7F3D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45947FCB-1BC2-477B-8D0E-DF5D2DF7E28A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6206,5 +6206,6 @@
     <hyperlink ref="B74" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>